--- a/テストケース.xlsx
+++ b/テストケース.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\7_Programing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC028E97-ECC3-492E-B1EB-39292568B960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85334FEA-CBC0-403C-8AEA-41066A1D0368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AE792E3C-5D04-4135-A95C-F6BFEA0379B7}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
   <si>
     <t>機能（どのシステム機能を）</t>
     <phoneticPr fontId="1"/>
@@ -67,6 +67,83 @@
     <t>結合テスト</t>
     <rPh sb="0" eb="2">
       <t>ケツゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録画面にて
+名前(性)　欄</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自身</t>
+    <rPh sb="0" eb="2">
+      <t>ジシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「指定されてる形式で～」というエラー表示</t>
+    <rPh sb="1" eb="3">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここでのエラーは出ず</t>
+    <rPh sb="8" eb="9">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PC/chrome</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「サトウ」と入力（カタカナ）
+→”確認する”押下</t>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「佐藤」と入力（漢字）
+→”確認する”押下</t>
+    <rPh sb="1" eb="3">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -75,7 +152,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,6 +165,22 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -108,6 +201,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -117,7 +218,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -126,6 +227,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -162,30 +278,94 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -501,80 +681,282 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B3C2FF-BF7D-4386-AA89-D980D04CF618}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="25.58203125" customWidth="1"/>
-    <col min="2" max="3" width="30.58203125" customWidth="1"/>
+    <col min="2" max="2" width="30.58203125" customWidth="1"/>
+    <col min="3" max="3" width="45.58203125" customWidth="1"/>
     <col min="4" max="4" width="15.58203125" customWidth="1"/>
-    <col min="5" max="5" width="20.58203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.58203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="30.58203125" customWidth="1"/>
     <col min="7" max="7" width="15.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="4" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="5" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="6" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="7" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="8" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="9" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="10" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="11" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="12" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="13" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="14" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="15" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="16" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="17" ht="35" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="18" ht="35" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="19" ht="35" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="20" ht="35" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="21" ht="35" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="22" ht="35" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="23" ht="35" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="24" ht="35" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="25" ht="35" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="26" ht="35" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="3" spans="1:7" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="17">
+        <v>45960</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="11">
+        <v>45960</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
@@ -597,42 +979,42 @@
     <col min="1" max="1" width="25.58203125" customWidth="1"/>
     <col min="2" max="3" width="30.58203125" customWidth="1"/>
     <col min="4" max="4" width="15.58203125" customWidth="1"/>
-    <col min="5" max="5" width="20.58203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.58203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="30.58203125" customWidth="1"/>
     <col min="7" max="7" width="15.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -682,42 +1064,42 @@
     <col min="1" max="1" width="25.58203125" customWidth="1"/>
     <col min="2" max="3" width="30.58203125" customWidth="1"/>
     <col min="4" max="4" width="15.58203125" customWidth="1"/>
-    <col min="5" max="5" width="20.58203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.58203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="30.58203125" customWidth="1"/>
     <col min="7" max="7" width="15.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
